--- a/medicine/Enfance/Le_Poney_rouge/Le_Poney_rouge.xlsx
+++ b/medicine/Enfance/Le_Poney_rouge/Le_Poney_rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Poney rouge (titre original : The Red Pony) est un roman court pour la jeunesse de John Steinbeck, publié en 1933 aux États-Unis. 
@@ -514,7 +526,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jody est un petit garçon un peu rêveur et solitaire, qui vit dans un ranch en Californie avec ses parents et le garçon d'écurie Billy Buck. Sa vie se déroule sans contretemps entre l'école et les travaux de la ferme quand un matin, il découvre un poney rouge que lui a offert son père, dans la grange. Jody commence à le dresser avec Billy Buck, espérant le jour où il pourra le monter, mais ce jour-là le poney tombe malade.
 </t>
@@ -545,7 +559,9 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) The Red Pony John Steinbeck, mai 1933, Penguin Books.
 Le Poney rouge, dans La Grande Vallée, éditions Gallimard, Du monde entier, 1946
@@ -582,10 +598,49 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Au cinéma
-1949 : Le Poney rouge, film américain réalisé par Lewis Milestone, avec Myrna Loy, Robert Mitchum et Louis Calhern
-À la télévision
-1973 : Le Poney rouge, téléfilm américain réalisé par Robert Totten, avec Henry Fonda, Maureen O'Hara et Ben Johnson</t>
+          <t>Au cinéma</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1949 : Le Poney rouge, film américain réalisé par Lewis Milestone, avec Myrna Loy, Robert Mitchum et Louis Calhern</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Le_Poney_rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Poney_rouge</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>À la télévision</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1973 : Le Poney rouge, téléfilm américain réalisé par Robert Totten, avec Henry Fonda, Maureen O'Hara et Ben Johnson</t>
         </is>
       </c>
     </row>
